--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1715.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1715.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6775111243361729</v>
+        <v>0.8252008557319641</v>
       </c>
       <c r="B1">
+        <v>1.978493690490723</v>
+      </c>
+      <c r="C1">
         <v>-1</v>
       </c>
-      <c r="C1">
-        <v>3.322002043118215</v>
-      </c>
       <c r="D1">
-        <v>1.892612625555285</v>
+        <v>1.780203938484192</v>
       </c>
       <c r="E1">
-        <v>1.438825422513668</v>
+        <v>0.4762255549430847</v>
       </c>
     </row>
   </sheetData>
